--- a/Notebooks/beta_good3_gauss3.xlsx
+++ b/Notebooks/beta_good3_gauss3.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="94">
   <si>
     <t>phase</t>
   </si>
@@ -81,6 +81,54 @@
   </si>
   <si>
     <t>ne_beta1m3</t>
+  </si>
+  <si>
+    <t>he_beta1_opt</t>
+  </si>
+  <si>
+    <t>he_beta2_opt</t>
+  </si>
+  <si>
+    <t>he_beta3_opt</t>
+  </si>
+  <si>
+    <t>he_beta4_opt</t>
+  </si>
+  <si>
+    <t>he_beta1_err</t>
+  </si>
+  <si>
+    <t>he_beta2_err</t>
+  </si>
+  <si>
+    <t>he_beta3_err</t>
+  </si>
+  <si>
+    <t>he_beta4_err</t>
+  </si>
+  <si>
+    <t>ne_beta1_opt</t>
+  </si>
+  <si>
+    <t>ne_beta2_opt</t>
+  </si>
+  <si>
+    <t>ne_beta3_opt</t>
+  </si>
+  <si>
+    <t>ne_beta4_opt</t>
+  </si>
+  <si>
+    <t>ne_beta1_err</t>
+  </si>
+  <si>
+    <t>ne_beta2_err</t>
+  </si>
+  <si>
+    <t>ne_beta3_err</t>
+  </si>
+  <si>
+    <t>ne_beta4_err</t>
   </si>
   <si>
     <t>he_beta1_amp_err</t>
@@ -606,13 +654,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W15"/>
+  <dimension ref="A1:AM15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:23">
+    <row r="1" spans="1:39">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -679,8 +727,56 @@
       <c r="W1" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
     </row>
-    <row r="2" spans="1:23">
+    <row r="2" spans="1:39">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -750,8 +846,56 @@
       <c r="W2">
         <v>0.2975976738129812</v>
       </c>
+      <c r="X2">
+        <v>-0.08712342836338005</v>
+      </c>
+      <c r="Y2">
+        <v>1.8526327947492</v>
+      </c>
+      <c r="Z2">
+        <v>0.03903878773608511</v>
+      </c>
+      <c r="AA2">
+        <v>1.055641995004353</v>
+      </c>
+      <c r="AB2">
+        <v>0.03049438544290839</v>
+      </c>
+      <c r="AC2">
+        <v>0.05519615582899765</v>
+      </c>
+      <c r="AD2">
+        <v>0.04177393128203785</v>
+      </c>
+      <c r="AE2">
+        <v>0.0524008869153552</v>
+      </c>
+      <c r="AF2">
+        <v>0.00665910195544306</v>
+      </c>
+      <c r="AG2">
+        <v>1.033463581479136</v>
+      </c>
+      <c r="AH2">
+        <v>-0.08253613735772264</v>
+      </c>
+      <c r="AI2">
+        <v>0.1150853695187685</v>
+      </c>
+      <c r="AJ2">
+        <v>0.01741669925737621</v>
+      </c>
+      <c r="AK2">
+        <v>0.02593507377490701</v>
+      </c>
+      <c r="AL2">
+        <v>0.02391484108552423</v>
+      </c>
+      <c r="AM2">
+        <v>0.02734216073984901</v>
+      </c>
     </row>
-    <row r="3" spans="1:23">
+    <row r="3" spans="1:39">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -821,8 +965,56 @@
       <c r="W3">
         <v>0.203518106417379</v>
       </c>
+      <c r="X3">
+        <v>-0.5126359163577923</v>
+      </c>
+      <c r="Y3">
+        <v>1.871606923575062</v>
+      </c>
+      <c r="Z3">
+        <v>-0.5931652978255164</v>
+      </c>
+      <c r="AA3">
+        <v>1.019959238056239</v>
+      </c>
+      <c r="AB3">
+        <v>0.03574992840703234</v>
+      </c>
+      <c r="AC3">
+        <v>0.06157534226017874</v>
+      </c>
+      <c r="AD3">
+        <v>0.04828991608573741</v>
+      </c>
+      <c r="AE3">
+        <v>0.05784469344604185</v>
+      </c>
+      <c r="AF3">
+        <v>-0.3446416363958164</v>
+      </c>
+      <c r="AG3">
+        <v>1.040714088141967</v>
+      </c>
+      <c r="AH3">
+        <v>-0.2766355775568772</v>
+      </c>
+      <c r="AI3">
+        <v>0.1078647245766133</v>
+      </c>
+      <c r="AJ3">
+        <v>0.01684739458137365</v>
+      </c>
+      <c r="AK3">
+        <v>0.0244767250262799</v>
+      </c>
+      <c r="AL3">
+        <v>0.02272331680010336</v>
+      </c>
+      <c r="AM3">
+        <v>0.02576136461521105</v>
+      </c>
     </row>
-    <row r="4" spans="1:23">
+    <row r="4" spans="1:39">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -892,8 +1084,56 @@
       <c r="W4">
         <v>-0.04620200116965434</v>
       </c>
+      <c r="X4">
+        <v>-0.5852403539004787</v>
+      </c>
+      <c r="Y4">
+        <v>1.871603019760021</v>
+      </c>
+      <c r="Z4">
+        <v>-0.7210711192179852</v>
+      </c>
+      <c r="AA4">
+        <v>1.055928244678011</v>
+      </c>
+      <c r="AB4">
+        <v>0.03458477848570824</v>
+      </c>
+      <c r="AC4">
+        <v>0.0586307222813099</v>
+      </c>
+      <c r="AD4">
+        <v>0.04682960648179663</v>
+      </c>
+      <c r="AE4">
+        <v>0.05539533024976183</v>
+      </c>
+      <c r="AF4">
+        <v>-0.4831013453718521</v>
+      </c>
+      <c r="AG4">
+        <v>1.044212186911499</v>
+      </c>
+      <c r="AH4">
+        <v>-0.2141712738799632</v>
+      </c>
+      <c r="AI4">
+        <v>0.1038006018817129</v>
+      </c>
+      <c r="AJ4">
+        <v>0.01680896756964631</v>
+      </c>
+      <c r="AK4">
+        <v>0.02385881327048233</v>
+      </c>
+      <c r="AL4">
+        <v>0.02205300049460752</v>
+      </c>
+      <c r="AM4">
+        <v>0.02509042756516555</v>
+      </c>
     </row>
-    <row r="5" spans="1:23">
+    <row r="5" spans="1:39">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -963,8 +1203,56 @@
       <c r="W5">
         <v>-0.2063082495443561</v>
       </c>
+      <c r="X5">
+        <v>-0.2763922288423692</v>
+      </c>
+      <c r="Y5">
+        <v>1.868770633037766</v>
+      </c>
+      <c r="Z5">
+        <v>-0.2777965550682772</v>
+      </c>
+      <c r="AA5">
+        <v>1.03484879991801</v>
+      </c>
+      <c r="AB5">
+        <v>0.03214935443139809</v>
+      </c>
+      <c r="AC5">
+        <v>0.05754567281419946</v>
+      </c>
+      <c r="AD5">
+        <v>0.04376570468410464</v>
+      </c>
+      <c r="AE5">
+        <v>0.05422602340177658</v>
+      </c>
+      <c r="AF5">
+        <v>-0.3092617594757713</v>
+      </c>
+      <c r="AG5">
+        <v>1.036180243318022</v>
+      </c>
+      <c r="AH5">
+        <v>0.02857495851809309</v>
+      </c>
+      <c r="AI5">
+        <v>0.07702434678131423</v>
+      </c>
+      <c r="AJ5">
+        <v>0.01732820140550633</v>
+      </c>
+      <c r="AK5">
+        <v>0.02527703618682386</v>
+      </c>
+      <c r="AL5">
+        <v>0.02327792598306839</v>
+      </c>
+      <c r="AM5">
+        <v>0.02661525552801863</v>
+      </c>
     </row>
-    <row r="6" spans="1:23">
+    <row r="6" spans="1:39">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1034,8 +1322,56 @@
       <c r="W6">
         <v>-0.188030235082083</v>
       </c>
+      <c r="X6">
+        <v>0.1735721045488523</v>
+      </c>
+      <c r="Y6">
+        <v>1.862423122043508</v>
+      </c>
+      <c r="Z6">
+        <v>0.3755790187415791</v>
+      </c>
+      <c r="AA6">
+        <v>1.018312054376965</v>
+      </c>
+      <c r="AB6">
+        <v>0.03079794617951738</v>
+      </c>
+      <c r="AC6">
+        <v>0.05560310569781609</v>
+      </c>
+      <c r="AD6">
+        <v>0.04267507614821369</v>
+      </c>
+      <c r="AE6">
+        <v>0.05234326299672853</v>
+      </c>
+      <c r="AF6">
+        <v>0.02482769548480739</v>
+      </c>
+      <c r="AG6">
+        <v>1.031301466077639</v>
+      </c>
+      <c r="AH6">
+        <v>0.246795773099099</v>
+      </c>
+      <c r="AI6">
+        <v>0.09924168042852502</v>
+      </c>
+      <c r="AJ6">
+        <v>0.01724150514849727</v>
+      </c>
+      <c r="AK6">
+        <v>0.02565916990434255</v>
+      </c>
+      <c r="AL6">
+        <v>0.02382441613209431</v>
+      </c>
+      <c r="AM6">
+        <v>0.02705518035138128</v>
+      </c>
     </row>
-    <row r="7" spans="1:23">
+    <row r="7" spans="1:39">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1105,8 +1441,56 @@
       <c r="W7">
         <v>0.0120792875343666</v>
       </c>
+      <c r="X7">
+        <v>0.4085050493843264</v>
+      </c>
+      <c r="Y7">
+        <v>1.858930065815635</v>
+      </c>
+      <c r="Z7">
+        <v>0.7487786662396047</v>
+      </c>
+      <c r="AA7">
+        <v>1.056073089578756</v>
+      </c>
+      <c r="AB7">
+        <v>0.03285344856747372</v>
+      </c>
+      <c r="AC7">
+        <v>0.05753085994693838</v>
+      </c>
+      <c r="AD7">
+        <v>0.04630014879396727</v>
+      </c>
+      <c r="AE7">
+        <v>0.05453348258475243</v>
+      </c>
+      <c r="AF7">
+        <v>0.2699357901328576</v>
+      </c>
+      <c r="AG7">
+        <v>1.032324789309688</v>
+      </c>
+      <c r="AH7">
+        <v>0.2960107337442034</v>
+      </c>
+      <c r="AI7">
+        <v>0.1126692758946162</v>
+      </c>
+      <c r="AJ7">
+        <v>0.01861432408007889</v>
+      </c>
+      <c r="AK7">
+        <v>0.02726609967958301</v>
+      </c>
+      <c r="AL7">
+        <v>0.02539097595154257</v>
+      </c>
+      <c r="AM7">
+        <v>0.02875084949266605</v>
+      </c>
     </row>
-    <row r="8" spans="1:23">
+    <row r="8" spans="1:39">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1176,8 +1560,56 @@
       <c r="W8">
         <v>0.2375118577769656</v>
       </c>
+      <c r="X8">
+        <v>0.2282000581129237</v>
+      </c>
+      <c r="Y8">
+        <v>1.853389385190773</v>
+      </c>
+      <c r="Z8">
+        <v>0.4933187541564643</v>
+      </c>
+      <c r="AA8">
+        <v>1.103257446127201</v>
+      </c>
+      <c r="AB8">
+        <v>0.03238827344259639</v>
+      </c>
+      <c r="AC8">
+        <v>0.05805591825850019</v>
+      </c>
+      <c r="AD8">
+        <v>0.04518855843098584</v>
+      </c>
+      <c r="AE8">
+        <v>0.05553616075293357</v>
+      </c>
+      <c r="AF8">
+        <v>0.2272243098448672</v>
+      </c>
+      <c r="AG8">
+        <v>1.028234644944094</v>
+      </c>
+      <c r="AH8">
+        <v>0.107184209979883</v>
+      </c>
+      <c r="AI8">
+        <v>0.1262866174274177</v>
+      </c>
+      <c r="AJ8">
+        <v>0.01896362925158791</v>
+      </c>
+      <c r="AK8">
+        <v>0.02788386531910085</v>
+      </c>
+      <c r="AL8">
+        <v>0.0257546060653278</v>
+      </c>
+      <c r="AM8">
+        <v>0.02943638248310589</v>
+      </c>
     </row>
-    <row r="9" spans="1:23">
+    <row r="9" spans="1:39">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1247,8 +1679,56 @@
       <c r="W9">
         <v>0.3022131351187203</v>
       </c>
+      <c r="X9">
+        <v>-0.2380628298019643</v>
+      </c>
+      <c r="Y9">
+        <v>1.85566495971684</v>
+      </c>
+      <c r="Z9">
+        <v>-0.1847009399468766</v>
+      </c>
+      <c r="AA9">
+        <v>1.141836410728529</v>
+      </c>
+      <c r="AB9">
+        <v>0.03369688456674522</v>
+      </c>
+      <c r="AC9">
+        <v>0.06037531510983696</v>
+      </c>
+      <c r="AD9">
+        <v>0.04583680268353071</v>
+      </c>
+      <c r="AE9">
+        <v>0.05809610736311984</v>
+      </c>
+      <c r="AF9">
+        <v>-0.09836401841795078</v>
+      </c>
+      <c r="AG9">
+        <v>1.034791571697421</v>
+      </c>
+      <c r="AH9">
+        <v>-0.1645654016641566</v>
+      </c>
+      <c r="AI9">
+        <v>0.1381212413143265</v>
+      </c>
+      <c r="AJ9">
+        <v>0.01714420184260041</v>
+      </c>
+      <c r="AK9">
+        <v>0.02548097750883034</v>
+      </c>
+      <c r="AL9">
+        <v>0.0235466097283301</v>
+      </c>
+      <c r="AM9">
+        <v>0.02687028008469364</v>
+      </c>
     </row>
-    <row r="10" spans="1:23">
+    <row r="10" spans="1:39">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1318,8 +1798,56 @@
       <c r="W10">
         <v>0.1436427565778214</v>
       </c>
+      <c r="X10">
+        <v>-0.5781401935777103</v>
+      </c>
+      <c r="Y10">
+        <v>1.844981263941911</v>
+      </c>
+      <c r="Z10">
+        <v>-0.691726151668161</v>
+      </c>
+      <c r="AA10">
+        <v>1.145367279149382</v>
+      </c>
+      <c r="AB10">
+        <v>0.03821696313080116</v>
+      </c>
+      <c r="AC10">
+        <v>0.06445416824677141</v>
+      </c>
+      <c r="AD10">
+        <v>0.05160157989756536</v>
+      </c>
+      <c r="AE10">
+        <v>0.06222747810997305</v>
+      </c>
+      <c r="AF10">
+        <v>-0.419336562286888</v>
+      </c>
+      <c r="AG10">
+        <v>1.038141491040083</v>
+      </c>
+      <c r="AH10">
+        <v>-0.2926238010951904</v>
+      </c>
+      <c r="AI10">
+        <v>0.1303017498290538</v>
+      </c>
+      <c r="AJ10">
+        <v>0.01714867455688104</v>
+      </c>
+      <c r="AK10">
+        <v>0.02460120525356856</v>
+      </c>
+      <c r="AL10">
+        <v>0.02287585792445428</v>
+      </c>
+      <c r="AM10">
+        <v>0.02591919151411351</v>
+      </c>
     </row>
-    <row r="11" spans="1:23">
+    <row r="11" spans="1:39">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1389,8 +1917,56 @@
       <c r="W11">
         <v>-0.1140820250474318</v>
       </c>
+      <c r="X11">
+        <v>-0.5269693751944676</v>
+      </c>
+      <c r="Y11">
+        <v>1.847351347671347</v>
+      </c>
+      <c r="Z11">
+        <v>-0.6377269520337167</v>
+      </c>
+      <c r="AA11">
+        <v>1.085257725019681</v>
+      </c>
+      <c r="AB11">
+        <v>0.03651621088090163</v>
+      </c>
+      <c r="AC11">
+        <v>0.06231965843518771</v>
+      </c>
+      <c r="AD11">
+        <v>0.04947509842904489</v>
+      </c>
+      <c r="AE11">
+        <v>0.05952959307481204</v>
+      </c>
+      <c r="AF11">
+        <v>-0.462018153894671</v>
+      </c>
+      <c r="AG11">
+        <v>1.043341715913945</v>
+      </c>
+      <c r="AH11">
+        <v>-0.1420586944334745</v>
+      </c>
+      <c r="AI11">
+        <v>0.1239891307390348</v>
+      </c>
+      <c r="AJ11">
+        <v>0.0165508607498096</v>
+      </c>
+      <c r="AK11">
+        <v>0.02358450536469075</v>
+      </c>
+      <c r="AL11">
+        <v>0.02173677413933552</v>
+      </c>
+      <c r="AM11">
+        <v>0.02481701649024841</v>
+      </c>
     </row>
-    <row r="12" spans="1:23">
+    <row r="12" spans="1:39">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1460,8 +2036,56 @@
       <c r="W12">
         <v>-0.2536850983977795</v>
       </c>
+      <c r="X12">
+        <v>-0.1147804842258518</v>
+      </c>
+      <c r="Y12">
+        <v>1.843809520414935</v>
+      </c>
+      <c r="Z12">
+        <v>-0.06380637873147545</v>
+      </c>
+      <c r="AA12">
+        <v>1.085127806008699</v>
+      </c>
+      <c r="AB12">
+        <v>0.03145143651882459</v>
+      </c>
+      <c r="AC12">
+        <v>0.05672910246754853</v>
+      </c>
+      <c r="AD12">
+        <v>0.04304398559188468</v>
+      </c>
+      <c r="AE12">
+        <v>0.05423713680492617</v>
+      </c>
+      <c r="AF12">
+        <v>-0.2041934460210911</v>
+      </c>
+      <c r="AG12">
+        <v>1.031031523057854</v>
+      </c>
+      <c r="AH12">
+        <v>0.1286061595095815</v>
+      </c>
+      <c r="AI12">
+        <v>0.09872100005180956</v>
+      </c>
+      <c r="AJ12">
+        <v>0.01713338783570813</v>
+      </c>
+      <c r="AK12">
+        <v>0.02526310925369807</v>
+      </c>
+      <c r="AL12">
+        <v>0.0233343599193656</v>
+      </c>
+      <c r="AM12">
+        <v>0.02663883452639255</v>
+      </c>
     </row>
-    <row r="13" spans="1:23">
+    <row r="13" spans="1:39">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1531,8 +2155,56 @@
       <c r="W13">
         <v>-0.1445243475542644</v>
       </c>
+      <c r="X13">
+        <v>0.3035329079550512</v>
+      </c>
+      <c r="Y13">
+        <v>1.837927855084798</v>
+      </c>
+      <c r="Z13">
+        <v>0.5599688671916502</v>
+      </c>
+      <c r="AA13">
+        <v>1.113440293552569</v>
+      </c>
+      <c r="AB13">
+        <v>0.03172920809552297</v>
+      </c>
+      <c r="AC13">
+        <v>0.05615558414298819</v>
+      </c>
+      <c r="AD13">
+        <v>0.04423059709132978</v>
+      </c>
+      <c r="AE13">
+        <v>0.05402198955533404</v>
+      </c>
+      <c r="AF13">
+        <v>0.1360365966151064</v>
+      </c>
+      <c r="AG13">
+        <v>1.031717401729078</v>
+      </c>
+      <c r="AH13">
+        <v>0.3017051504957342</v>
+      </c>
+      <c r="AI13">
+        <v>0.1185241082462293</v>
+      </c>
+      <c r="AJ13">
+        <v>0.01881354812344437</v>
+      </c>
+      <c r="AK13">
+        <v>0.02788852393159148</v>
+      </c>
+      <c r="AL13">
+        <v>0.0259843273120923</v>
+      </c>
+      <c r="AM13">
+        <v>0.02941458858194177</v>
+      </c>
     </row>
-    <row r="14" spans="1:23">
+    <row r="14" spans="1:39">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1602,8 +2274,56 @@
       <c r="W14">
         <v>0.110962287297113</v>
       </c>
+      <c r="X14">
+        <v>0.4152752140684409</v>
+      </c>
+      <c r="Y14">
+        <v>1.839482529496212</v>
+      </c>
+      <c r="Z14">
+        <v>0.7529715082518194</v>
+      </c>
+      <c r="AA14">
+        <v>1.15145242619626</v>
+      </c>
+      <c r="AB14">
+        <v>0.03128674644152071</v>
+      </c>
+      <c r="AC14">
+        <v>0.05445242417392039</v>
+      </c>
+      <c r="AD14">
+        <v>0.04406992321960498</v>
+      </c>
+      <c r="AE14">
+        <v>0.05269954882236389</v>
+      </c>
+      <c r="AF14">
+        <v>0.316402902342739</v>
+      </c>
+      <c r="AG14">
+        <v>1.028196864635238</v>
+      </c>
+      <c r="AH14">
+        <v>0.252098953401878</v>
+      </c>
+      <c r="AI14">
+        <v>0.1350260113252573</v>
+      </c>
+      <c r="AJ14">
+        <v>0.01979804072771231</v>
+      </c>
+      <c r="AK14">
+        <v>0.02880338353162175</v>
+      </c>
+      <c r="AL14">
+        <v>0.02676967660380434</v>
+      </c>
+      <c r="AM14">
+        <v>0.03041371217956687</v>
+      </c>
     </row>
-    <row r="15" spans="1:23">
+    <row r="15" spans="1:39">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1672,6 +2392,54 @@
       </c>
       <c r="W15">
         <v>0.3057454959239539</v>
+      </c>
+      <c r="X15">
+        <v>0.04969147956619423</v>
+      </c>
+      <c r="Y15">
+        <v>1.834704276414616</v>
+      </c>
+      <c r="Z15">
+        <v>0.2466713392785645</v>
+      </c>
+      <c r="AA15">
+        <v>1.190103733134485</v>
+      </c>
+      <c r="AB15">
+        <v>0.0308296226927953</v>
+      </c>
+      <c r="AC15">
+        <v>0.05561268915107377</v>
+      </c>
+      <c r="AD15">
+        <v>0.04258240714610513</v>
+      </c>
+      <c r="AE15">
+        <v>0.05424771667484846</v>
+      </c>
+      <c r="AF15">
+        <v>0.1210429013756779</v>
+      </c>
+      <c r="AG15">
+        <v>1.028816923443945</v>
+      </c>
+      <c r="AH15">
+        <v>-0.008729588579138418</v>
+      </c>
+      <c r="AI15">
+        <v>0.130556850691652</v>
+      </c>
+      <c r="AJ15">
+        <v>0.01889719612370874</v>
+      </c>
+      <c r="AK15">
+        <v>0.02801966007137047</v>
+      </c>
+      <c r="AL15">
+        <v>0.02584143032936607</v>
+      </c>
+      <c r="AM15">
+        <v>0.02957909204378071</v>
       </c>
     </row>
   </sheetData>
@@ -1689,172 +2457,172 @@
   <sheetData>
     <row r="1" spans="1:57">
       <c r="B1" s="1" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="BD1" s="1" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="BE1" s="1" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:57">
